--- a/毕业设计相关/毕业论文/RSA加密算法原理图.xlsx
+++ b/毕业设计相关/毕业论文/RSA加密算法原理图.xlsx
@@ -1592,8 +1592,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -1610,8 +1610,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886325" y="1133475"/>
-          <a:ext cx="581025" cy="1362075"/>
+          <a:off x="9686925" y="1133475"/>
+          <a:ext cx="638175" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1645,7 +1645,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1662,7 +1662,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -1685,8 +1685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6477001" y="1133475"/>
-          <a:ext cx="581024" cy="1362075"/>
+          <a:off x="11229975" y="1133475"/>
+          <a:ext cx="628650" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1720,7 +1720,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1736,8 +1736,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -1760,8 +1760,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5467350" y="1457325"/>
-          <a:ext cx="1028700" cy="0"/>
+          <a:off x="10325100" y="1457325"/>
+          <a:ext cx="971550" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1843,7 +1843,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
               <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
               <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
             </a:rPr>
@@ -1857,13 +1857,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>676276</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1880,8 +1880,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5476875" y="2143125"/>
-          <a:ext cx="1000125" cy="0"/>
+          <a:off x="10277476" y="2143125"/>
+          <a:ext cx="952499" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1963,7 +1963,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
               <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
               <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
             </a:rPr>
@@ -1977,7 +1977,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
@@ -2000,8 +2000,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7267575" y="1152526"/>
-          <a:ext cx="990600" cy="342899"/>
+          <a:off x="12020550" y="1152526"/>
+          <a:ext cx="1038225" cy="342899"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2035,7 +2035,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2058,9 +2058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2075,8 +2075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="2371724"/>
-          <a:ext cx="1343025" cy="609601"/>
+          <a:off x="11753850" y="2371724"/>
+          <a:ext cx="1419225" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2105,12 +2105,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2185,7 +2185,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2195,21 +2195,23 @@
             <a:t>制作</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>token</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2311,7 +2313,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8258175" y="1323975"/>
+          <a:off x="13058775" y="1323975"/>
           <a:ext cx="533400" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2347,7 +2349,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>195263</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
@@ -2367,8 +2369,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7058025" y="1495425"/>
-          <a:ext cx="704850" cy="319088"/>
+          <a:off x="11858625" y="1495425"/>
+          <a:ext cx="681038" cy="319088"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2403,7 +2405,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
+      <xdr:colOff>119063</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
@@ -2423,8 +2425,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7058025" y="1814513"/>
-          <a:ext cx="566738" cy="557211"/>
+          <a:off x="11858625" y="1814513"/>
+          <a:ext cx="604838" cy="557211"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2511,7 +2513,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2520,7 +2522,7 @@
             </a:rPr>
             <a:t>用户</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -2561,7 +2563,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4143375" y="1814513"/>
+          <a:off x="8943975" y="1814513"/>
           <a:ext cx="742950" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2648,8 +2650,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
@@ -2672,8 +2674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="3295651"/>
-          <a:ext cx="1028700" cy="238124"/>
+          <a:off x="10820400" y="3295651"/>
+          <a:ext cx="1276350" cy="238124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2702,20 +2704,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
               <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
               <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
             </a:rPr>
             <a:t>线下运输</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
               <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
               <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
             </a:rPr>
             <a:t>token</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
             <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
             <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
           </a:endParaRPr>
@@ -2727,15 +2729,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2750,8 +2752,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="1619251"/>
-          <a:ext cx="447675" cy="190499"/>
+          <a:off x="8982075" y="1647827"/>
+          <a:ext cx="504825" cy="142874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2781,7 +2783,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
               <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
               <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
             </a:rPr>
@@ -3855,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/毕业设计相关/毕业论文/RSA加密算法原理图.xlsx
+++ b/毕业设计相关/毕业论文/RSA加密算法原理图.xlsx
@@ -1586,15 +1586,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1661,15 +1661,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1736,15 +1736,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1789,15 +1789,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1856,15 +1856,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1909,15 +1909,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1976,15 +1976,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2051,15 +2051,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>16</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2126,15 +2126,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2220,15 +2220,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2286,15 +2286,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2342,15 +2342,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>195263</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2398,15 +2398,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>13</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2454,15 +2454,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2536,15 +2536,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2592,15 +2592,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>11</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2650,15 +2650,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2728,15 +2728,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2796,15 +2796,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2871,15 +2871,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2946,15 +2946,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2999,15 +2999,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3066,15 +3066,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3132,15 +3132,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3214,15 +3214,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3270,15 +3270,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3337,15 +3337,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3404,15 +3404,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3471,15 +3471,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3524,15 +3524,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3584,6 +3584,3493 @@
             </a:rPr>
             <a:t>返回验证结果</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矩形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98DF869-1CFB-4E06-B989-5FA6B0995125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13592174" y="742950"/>
+          <a:ext cx="838201" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SuperClient</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="矩形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6622F46F-0EF5-407A-A845-76A6294740B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14878050" y="742951"/>
+          <a:ext cx="866775" cy="1295399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>服务端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72366C92-323D-44AF-8D3E-028931E6B8E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13487400" y="352425"/>
+          <a:ext cx="3705225" cy="1828801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>安全聊天工具</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="矩形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C68441B-F071-4DCC-B9D2-385B14C135CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13592175" y="1190625"/>
+          <a:ext cx="838199" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>线程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矩形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19A0235-D98E-4CE8-8EB7-9C19F522AB7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13592175" y="1609725"/>
+          <a:ext cx="838200" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>工作线程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矩形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0AE036-63D8-4F7F-921F-58F7516FA28C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16202025" y="742950"/>
+          <a:ext cx="866775" cy="1304926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>数据库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="矩形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E10DB5A-D666-4CF6-A9E3-8B0B43EFE277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12592050" y="1133475"/>
+          <a:ext cx="542925" cy="523874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>用户</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BFFF138-B5A3-4097-B2A2-E1D70F808FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13106400" y="1295400"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800A466C-3730-45B6-A7E0-5FC4181BA508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14316075" y="1333500"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D04907-E30B-4D1C-A0B7-BDADB929CCDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15668625" y="1323975"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA8D399F-1D73-4116-B091-17F190A639B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15601950" y="1828800"/>
+          <a:ext cx="723900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6D23E3-CE8E-4CDE-8266-42CBBE7AD93B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14306550" y="1828800"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直接箭头连接符 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466510CD-5586-4D11-A2FC-FC30924200D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13068300" y="1495425"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直接箭头连接符 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0371EC49-4FF7-4197-B81A-835C92F6D1C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14325600" y="1447802"/>
+          <a:ext cx="1" cy="295273"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="文本框 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405D3454-49E8-4080-9F29-6C30D1E1AC90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13115925" y="1085850"/>
+          <a:ext cx="476250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>请求</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="文本框 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126D36EC-A6C9-4036-A311-049B37036745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="1123950"/>
+          <a:ext cx="476250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>请求</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="文本框 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FE3FD3-0D88-4B17-A7EA-696A6129CF11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15735300" y="1114425"/>
+          <a:ext cx="476250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>操作</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="文本框 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D131EB-364E-4439-B3BF-8C89B1F2697D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15754351" y="1619250"/>
+          <a:ext cx="476250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>结果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="文本框 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2F1A2C-D09B-43BB-BD55-EC74658C4C0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14430375" y="1609725"/>
+          <a:ext cx="476250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>反馈</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="文本框 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E53E60-F5BB-409A-8DE1-C32BC5B3DBAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13115925" y="1285875"/>
+          <a:ext cx="476250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>显示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="矩形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C68C22-BFFD-4560-8B10-B26613389833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14878050" y="1152524"/>
+          <a:ext cx="866775" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>业务处理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="矩形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25792C2-53C1-4C8A-A62F-DBC57ED7FD75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16202025" y="1162050"/>
+          <a:ext cx="866775" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>数据操作</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="矩形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3B7359-EE4F-4E89-B935-1DB6CF90FD81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13449300" y="3190874"/>
+          <a:ext cx="1590675" cy="1428751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDBCEC5-D2B4-4395-B851-9D8BDBEC527B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="6"/>
+          <a:endCxn id="82" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12973050" y="3648076"/>
+          <a:ext cx="609601" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="文本框 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6967CD2-26EF-43A9-9C3C-6DC5529638E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12963525" y="3428999"/>
+          <a:ext cx="571500" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>明文</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>m</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="矩形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD55534-4C0A-4F46-88C6-8BFF873B7D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13496925" y="4095750"/>
+          <a:ext cx="647700" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>私钥</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>签名</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="矩形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D73195-8645-4A05-AD06-ADBA0CF26245}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13582651" y="3533775"/>
+          <a:ext cx="476250" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>组合</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="矩形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA904489-F409-437B-8FA9-8A7D47037CC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15420975" y="3190875"/>
+          <a:ext cx="628650" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>服务端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="文本框 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BEA90C-EA0A-4278-B15B-B3382273A945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487649" y="4600575"/>
+          <a:ext cx="504825" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>转发</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F93D0C-55E3-4DF9-AFF9-DBB35050C356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="0"/>
+          <a:endCxn id="82" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13820775" y="3771901"/>
+          <a:ext cx="1" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="文本框 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EE5AEF-1CDF-44E5-95D7-24284E3E5B52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14039850" y="3448049"/>
+          <a:ext cx="438150" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>m+n</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="矩形 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68246CDB-B322-4A85-90B7-A7128872717B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14430376" y="3438525"/>
+          <a:ext cx="533400" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>公钥加密</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="椭圆 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11583EFF-9AF4-47B4-96E0-4DED257D2495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12144375" y="3467101"/>
+          <a:ext cx="828675" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用户</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1050" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="椭圆 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F7650E-C86B-403A-8D3C-C5194CE9DE7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12153900" y="5686425"/>
+          <a:ext cx="819150" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用户</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1050" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="文本框 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF77ABDE-374C-4317-9A1F-2AF65E318916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13373100" y="3848099"/>
+          <a:ext cx="523875" cy="200026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>签名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直接箭头连接符 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44A5258-BF04-49AF-A755-38976FEDF891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
+          <a:endCxn id="114" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14058901" y="3652838"/>
+          <a:ext cx="371475" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="矩形 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D534A83-F6EE-4B0A-BF10-6B47B12C6719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13449300" y="4743450"/>
+          <a:ext cx="1590675" cy="1428751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="矩形 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EA50F9-73D4-495E-9B9F-D381EC65951E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13496925" y="5648326"/>
+          <a:ext cx="647700" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>公</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>钥验证</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="矩形 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B5844A-3E14-4C55-9CF0-E882825075EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13582651" y="5086351"/>
+          <a:ext cx="476250" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>解析</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="矩形 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B7F186-09DA-42C4-8363-0160B0C76B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14430376" y="4991101"/>
+          <a:ext cx="533400" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>私钥解密</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="直接箭头连接符 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2518AB2F-090C-4BA3-8E7A-D1F039F5B23D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="170" idx="1"/>
+          <a:endCxn id="169" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14058901" y="5205414"/>
+          <a:ext cx="371475" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="直接箭头连接符 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8441F257-5328-44FA-9AD1-9AE0192B6BE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="169" idx="2"/>
+          <a:endCxn id="168" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13820775" y="5324477"/>
+          <a:ext cx="1" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="直接箭头连接符 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6322917-64C2-4A7C-8E2C-6CF0442E0323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="168" idx="1"/>
+          <a:endCxn id="121" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12973050" y="5867400"/>
+          <a:ext cx="523875" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="直接箭头连接符 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961A0307-E9A5-42CF-AFB0-B3BB95181971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="114" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14963776" y="3657600"/>
+          <a:ext cx="581024" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="直接箭头连接符 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{516F15CA-CE14-4825-8660-954DEB69C90B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="170" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14963776" y="5210175"/>
+          <a:ext cx="561974" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="文本框 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3483E51E-551F-469C-A804-E6C9BA888F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14058900" y="4991100"/>
+          <a:ext cx="438150" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>m+n</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="文本框 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D323CA17-B9DC-4A8B-A49A-C1E3B402C1CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13382625" y="5362577"/>
+          <a:ext cx="523875" cy="200026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>签名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="文本框 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66630337-A8F6-440F-9CAC-154E5C1C821B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12973050" y="5638800"/>
+          <a:ext cx="571500" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>明文</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>m</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3843,7 +7330,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -3857,8 +7368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
